--- a/output/ValueSet-gridhamd-answer-options-vs-q8.xlsx
+++ b/output/ValueSet-gridhamd-answer-options-vs-q8.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T14:21:32+02:00</t>
+    <t>2025-06-12T14:08:24+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-gridhamd-answer-options-vs-q8.xlsx
+++ b/output/ValueSet-gridhamd-answer-options-vs-q8.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T14:08:24+02:00</t>
+    <t>2025-06-13T14:46:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-gridhamd-answer-options-vs-q8.xlsx
+++ b/output/ValueSet-gridhamd-answer-options-vs-q8.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T14:46:42+02:00</t>
+    <t>2025-06-16T14:33:49+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-gridhamd-answer-options-vs-q8.xlsx
+++ b/output/ValueSet-gridhamd-answer-options-vs-q8.xlsx
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T14:33:49+02:00</t>
+    <t>2025-06-18T11:50:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>BIH-CEI</t>
+    <t>BIH at Charité - Core Unit Digital Medicine and Interoperability</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>BIH-CEI (http://utn/consentresource.com)</t>
+    <t>BIH at Charité - Core Unit Digital Medicine and Interoperability (https://www.bihealth.org/de/forschung/arbeitsgruppen/interoperabilitaet/home)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/output/ValueSet-gridhamd-answer-options-vs-q8.xlsx
+++ b/output/ValueSet-gridhamd-answer-options-vs-q8.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T11:50:53+02:00</t>
+    <t>2025-06-18T14:35:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
